--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +981,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1016,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1074,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1189,28 +1201,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1247,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1315,10 +1327,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1362,28 +1374,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1408,28 +1420,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1661,10 +1673,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1708,28 +1720,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1754,28 +1766,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1846,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1893,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1939,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2993,10 +3005,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3040,28 +3052,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3086,28 +3098,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3166,10 +3178,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3213,28 +3225,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3259,28 +3271,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3339,10 +3351,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3386,28 +3398,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3432,28 +3444,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3870,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3917,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3963,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4043,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4090,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4136,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4552,10 +4564,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4599,28 +4611,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4645,28 +4657,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4725,10 +4737,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4772,28 +4784,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4818,28 +4830,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4898,10 +4910,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4945,28 +4957,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4991,28 +5003,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5071,10 +5083,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5118,28 +5130,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5164,28 +5176,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5417,10 +5429,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5464,28 +5476,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5510,28 +5522,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5590,10 +5602,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5637,28 +5649,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5683,28 +5695,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5763,10 +5775,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5810,28 +5822,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5856,28 +5868,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5936,10 +5948,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5983,28 +5995,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6029,28 +6041,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6109,10 +6121,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6156,28 +6168,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6202,28 +6214,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6485,10 +6497,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6532,28 +6544,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6578,28 +6590,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6658,10 +6670,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6705,28 +6717,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6751,28 +6763,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6843,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6890,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6936,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7004,10 +7016,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7051,28 +7063,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7097,28 +7109,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7177,10 +7189,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7224,28 +7236,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7270,28 +7282,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7350,10 +7362,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7397,28 +7409,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7443,28 +7455,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
